--- a/Project Documentatie/logboek/Armin_Fahim.xlsx
+++ b/Project Documentatie/logboek/Armin_Fahim.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armin\Dropbox\Project De gokkers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Git\DeGokkers\Project Documentatie\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -84,6 +84,39 @@
   </si>
   <si>
     <t>Gemaakt Armin</t>
+  </si>
+  <si>
+    <t>13/3/2017</t>
+  </si>
+  <si>
+    <t>14/3/2017</t>
+  </si>
+  <si>
+    <t>20/3/2017</t>
+  </si>
+  <si>
+    <t>21/3/2017</t>
+  </si>
+  <si>
+    <t>27/32017</t>
+  </si>
+  <si>
+    <t>28/3/2017</t>
+  </si>
+  <si>
+    <t>begonnen website</t>
+  </si>
+  <si>
+    <t>verder aan website</t>
+  </si>
+  <si>
+    <t>testen</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>alles afronden</t>
   </si>
 </sst>
 </file>
@@ -181,9 +214,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Berekening" xfId="2" builtinId="22"/>
-    <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,7 +531,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,45 +673,80 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="B15" s="3">
         <v>0</v>
       </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2">
+        <v>42798</v>
+      </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -799,7 +867,7 @@
       </c>
       <c r="B36" s="3">
         <f>SUM(B2:B33)</f>
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -810,7 +878,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>SUM(B36:C36)</f>
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
